--- a/biology/Zoologie/2010__Moby_Dick/2010__Moby_Dick.xlsx
+++ b/biology/Zoologie/2010__Moby_Dick/2010__Moby_Dick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">2010: Moby Dick, diffusé en 2010, est une adaptation moderne du célèbre roman éponyme, mais se déroulant de nos jours. Il est produit par The Asylum et réalisé par Trey Stokes.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1969, 80 km dans les eaux territoriales soviétiques. Le sous-marin USS Acushnet est en mission de reconnaissance quand il se fait attaquer par Moby Dick, un cachalot de 150 mètres de long tout droit sortie de la préhistoire. Deux survivants sont connus : Boomer et son ami John Achab, qui fut le premier à détecter le monstre. L'attaque laissera des séquelles, Boomer ayant perdu l'usage de sa main droite, et Achab ayant perdu sa jambe. 40 ans plus tard, le Commandant Achab, aux commandes du dernier-né de la classe Virginia, l'USS Pequod, dont il a supervisé les modifications, décide de prendre sa revanche. Cessant toute communications avec l'Amiral De Deers, Chef d'état-major de la Troisième Flotte américaine — qui envoie Boomer, devenu Capitaine, pour l'arrêter — il poursuit Moby Dick à la trace de ses attaques et force une biologiste, le Docteur Michelle Herman, et son assistant, Pip, à l'aider à la retrouver afin de mettre un terme définitif à ses attaques…
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : 2010: Moby Dick
 Titre original : Moby Dick
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barry Bostwick : Commandant John Achab
 Renée O'Connor : Michelle Herman
@@ -615,7 +633,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans la version française, le commandant de la Troisième Flotte devient un général alors qu'il aurait dû s'agir d'un amiral.
 Le nom de la biologiste est une référence à l'auteur du roman Moby-Dick, Herman Melville.
